--- a/GATEWAY/A1#111PHILIPSXXXX/Philips/VueRIS-SignPlugin/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PHILIPSXXXX/Philips/VueRIS-SignPlugin/1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.philips.com/sites/HCISIntegration260/Integration Project Docs/EAMER/Italy/FSE 2.0/RIS/Accreditamento/File Da sottomettere/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.philips.com/sites/HCISIntegration260/Integration Project Docs/EAMER/Italy/FSE 2.0/RIS/Accreditamento/File Da sottomettere/VueRIS-SignPlugin/1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{63E9DA7A-E562-4196-8B7D-ABAC9D8BE15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACB44106-A3EE-46C7-81F8-51EA1E6ADE29}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{63E9DA7A-E562-4196-8B7D-ABAC9D8BE15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C98063-CC76-4C14-AA6C-BF7740790B78}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2085" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4565,9 +4565,6 @@
 	"instance": "/validation/error"</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.e26ae1ef855d1a17087cd17b682ed6e932cff5d3dac28db235038885d766c28d.e4209f28df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>"title":"Errore semantico.","detail":"[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM']","status":422,"instance":"/validation/error"</t>
   </si>
   <si>
@@ -4575,57 +4572,6 @@
   </si>
   <si>
     <t>A seguito dell'errore di validazione,lo studio viene marcato per una gestione della problematica in back office. Successivamente alla risoluzione del problema,una nuova firma digitale sarà necessaria per pubblicare il referto su Fascicolo. Il referto viene in ogni caso firmato digitalmente per non bloccare fondamentali flussi radiologici. All'utente non viene visualizzato alcun errore.</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d37ecd7f3bdc410e5b6d9b8c9aeb8632b4e54baaa6a6c43c11b267fd1560a221.ff6dbbb2dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>aad1b9f292b41718</t>
-  </si>
-  <si>
-    <t>2023-08-23T11:38:43.398Z</t>
-  </si>
-  <si>
-    <t>2023-08-23T11:47:32.667Z</t>
-  </si>
-  <si>
-    <t>e7e001bbac940555</t>
-  </si>
-  <si>
-    <t>2023-08-23T11:54:22.953Z</t>
-  </si>
-  <si>
-    <t>8530e78fab441176</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d37ecd7f3bdc410e5b6d9b8c9aeb8632b4e54baaa6a6c43c11b267fd1560a221.5cd8f23e6a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-08-23T12:02:16.303Z</t>
-  </si>
-  <si>
-    <t>60c747c68623a46f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d37ecd7f3bdc410e5b6d9b8c9aeb8632b4e54baaa6a6c43c11b267fd1560a221.0234f226d9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-08-23T12:07:24.598Z</t>
-  </si>
-  <si>
-    <t>fdb9f35417e1e2d5</t>
-  </si>
-  <si>
-    <t>2023-08-23T12:17:48.443Z</t>
-  </si>
-  <si>
-    <t>7cb6d4ade44d4301</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.ba8f54b2c2a2b0a938952642345a6a050e94a895f7307d51fe457a84eac97a18.2e3d69f987^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-08-23T12:36:44.930Z</t>
   </si>
   <si>
     <t>Il sistema riceve il seguente errore:
@@ -4635,6 +4581,60 @@
   </si>
   <si>
     <t>subject_application_id: VueRIS-SignPlugin</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d37ecd7f3bdc410e5b6d9b8c9aeb8632b4e54baaa6a6c43c11b267fd1560a221.c9ff853bf5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d7ebaa3926a1ea39</t>
+  </si>
+  <si>
+    <t>2023-09-01T13:32:55.140Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-01T13:39:21.577Z </t>
+  </si>
+  <si>
+    <t>c82702ba5ada61b9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-01T13:40:26.457Z </t>
+  </si>
+  <si>
+    <t>2023-09-01T13:43:07.572Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d37ecd7f3bdc410e5b6d9b8c9aeb8632b4e54baaa6a6c43c11b267fd1560a221.0987620b6c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6806fbc45a2ce7e1</t>
+  </si>
+  <si>
+    <t>2023-09-01T14:05:14.085Z</t>
+  </si>
+  <si>
+    <t>ecb822ab5a822bf6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d37ecd7f3bdc410e5b6d9b8c9aeb8632b4e54baaa6a6c43c11b267fd1560a221.31483fe55d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-09-01T14:10:41.456Z</t>
+  </si>
+  <si>
+    <t>562cfab967f4396c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d37ecd7f3bdc410e5b6d9b8c9aeb8632b4e54baaa6a6c43c11b267fd1560a221.5899f5b9c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-09-01T14:42:37.735Z</t>
+  </si>
+  <si>
+    <t>eeb6514a0379b1be</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.51595fe6b2dde80d677319ce8268fee143d720124eba52b30b2da0dbef601295.b90118ae70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5078,9 +5078,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5109,6 +5106,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7570,10 +7570,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="F266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7612,14 +7612,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>831</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="45"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7637,14 +7637,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="53" t="s">
-        <v>878</v>
-      </c>
-      <c r="D3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="52" t="s">
+        <v>860</v>
+      </c>
+      <c r="D3" s="45"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7662,12 +7662,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="52" t="s">
         <v>829</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7686,12 +7686,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>830</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="45"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7709,8 +7709,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -14127,23 +14127,23 @@
       <c r="C195" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D195" s="39" t="s">
+      <c r="D195" s="38" t="s">
         <v>423</v>
       </c>
       <c r="E195" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F195" s="33">
-        <v>45161</v>
+      <c r="F195" s="23">
+        <v>45170</v>
       </c>
       <c r="G195" s="34" t="s">
+        <v>863</v>
+      </c>
+      <c r="H195" s="34" t="s">
         <v>862</v>
       </c>
-      <c r="H195" s="34" t="s">
+      <c r="I195" s="34" t="s">
         <v>861</v>
-      </c>
-      <c r="I195" s="34" t="s">
-        <v>860</v>
       </c>
       <c r="J195" s="35" t="s">
         <v>488</v>
@@ -14800,17 +14800,17 @@
       <c r="D214" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="E214" s="40" t="s">
+      <c r="E214" s="39" t="s">
         <v>456</v>
       </c>
       <c r="F214" s="33">
-        <v>45161</v>
-      </c>
-      <c r="G214" s="34" t="s">
-        <v>863</v>
-      </c>
-      <c r="H214" s="34" t="s">
+        <v>45170</v>
+      </c>
+      <c r="G214" s="24" t="s">
         <v>864</v>
+      </c>
+      <c r="H214" s="24" t="s">
+        <v>865</v>
       </c>
       <c r="I214" s="34" t="s">
         <v>835</v>
@@ -14832,7 +14832,7 @@
         <v>488</v>
       </c>
       <c r="P214" s="35" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q214" s="35" t="s">
         <v>826</v>
@@ -15365,7 +15365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="20">
         <v>47</v>
       </c>
@@ -15382,10 +15382,10 @@
         <v>487</v>
       </c>
       <c r="F230" s="33">
-        <v>45161</v>
-      </c>
-      <c r="G230" s="34" t="s">
-        <v>876</v>
+        <v>45170</v>
+      </c>
+      <c r="G230" s="24" t="s">
+        <v>866</v>
       </c>
       <c r="H230" s="34"/>
       <c r="I230" s="34"/>
@@ -15400,7 +15400,7 @@
         <v>828</v>
       </c>
       <c r="P230" s="35" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="Q230" s="35" t="s">
         <v>826</v>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="34"/>
-      <c r="H258" s="34"/>
+      <c r="H258" s="24"/>
       <c r="I258" s="34"/>
       <c r="J258" s="35" t="s">
         <v>828</v>
@@ -16392,16 +16392,16 @@
         <v>545</v>
       </c>
       <c r="F259" s="33">
-        <v>45161</v>
-      </c>
-      <c r="G259" s="34" t="s">
-        <v>865</v>
+        <v>45170</v>
+      </c>
+      <c r="G259" s="24" t="s">
+        <v>867</v>
       </c>
       <c r="H259" s="34" t="s">
-        <v>866</v>
-      </c>
-      <c r="I259" s="34" t="s">
-        <v>867</v>
+        <v>869</v>
+      </c>
+      <c r="I259" s="24" t="s">
+        <v>868</v>
       </c>
       <c r="J259" s="35" t="s">
         <v>488</v>
@@ -16420,7 +16420,7 @@
         <v>488</v>
       </c>
       <c r="P259" s="35" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q259" s="35" t="s">
         <v>826</v>
@@ -16509,7 +16509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="20">
         <v>79</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="20">
         <v>80</v>
       </c>
@@ -16564,16 +16564,16 @@
         <v>553</v>
       </c>
       <c r="F263" s="33">
-        <v>45161</v>
-      </c>
-      <c r="G263" s="34" t="s">
-        <v>868</v>
-      </c>
-      <c r="H263" s="34" t="s">
-        <v>869</v>
+        <v>45170</v>
+      </c>
+      <c r="G263" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="H263" s="24" t="s">
+        <v>874</v>
       </c>
       <c r="I263" s="34" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="J263" s="35" t="s">
         <v>488</v>
@@ -16592,7 +16592,7 @@
         <v>488</v>
       </c>
       <c r="P263" s="35" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q263" s="35" t="s">
         <v>826</v>
@@ -16660,16 +16660,16 @@
         <v>557</v>
       </c>
       <c r="F265" s="33">
-        <v>45161</v>
-      </c>
-      <c r="G265" s="34" t="s">
+        <v>45170</v>
+      </c>
+      <c r="G265" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="H265" s="53" t="s">
         <v>871</v>
       </c>
-      <c r="H265" s="38" t="s">
+      <c r="I265" s="24" t="s">
         <v>872</v>
-      </c>
-      <c r="I265" s="34" t="s">
-        <v>856</v>
       </c>
       <c r="J265" s="35" t="s">
         <v>488</v>
@@ -16682,13 +16682,13 @@
         <v>836</v>
       </c>
       <c r="N265" s="35" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O265" s="35" t="s">
         <v>488</v>
       </c>
       <c r="P265" s="35" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q265" s="35" t="s">
         <v>826</v>
@@ -16756,16 +16756,16 @@
         <v>561</v>
       </c>
       <c r="F267" s="33">
-        <v>45161</v>
+        <v>45170</v>
       </c>
       <c r="G267" s="34" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="H267" s="34" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="I267" s="34" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="J267" s="35" t="s">
         <v>488</v>
@@ -16778,13 +16778,13 @@
         <v>836</v>
       </c>
       <c r="N267" s="35" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O267" s="35" t="s">
         <v>488</v>
       </c>
       <c r="P267" s="35" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q267" s="35" t="s">
         <v>826</v>
@@ -33086,20 +33086,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e40374fb-a6cc-4854-989f-c1d94a7967ee" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2fbb41f8-148e-47b2-8bb2-53dd0d6e062d">
@@ -33111,8 +33097,22 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e40374fb-a6cc-4854-989f-c1d94a7967ee" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09441A3C-66DF-4916-B8ED-CF0FE2DE1B1A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C24503-B79B-4BF9-8283-FA6E2DA589E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -33132,9 +33132,12 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D86236-EAFC-48DB-B351-E7598A8B8AB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2850EEF4-EC69-4F2E-B0CE-8034B61489F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2fbb41f8-148e-47b2-8bb2-53dd0d6e062d"/>
+    <ds:schemaRef ds:uri="49919dca-d9c1-492f-bd36-8a887e31a6e3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33148,12 +33151,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2850EEF4-EC69-4F2E-B0CE-8034B61489F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D86236-EAFC-48DB-B351-E7598A8B8AB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2fbb41f8-148e-47b2-8bb2-53dd0d6e062d"/>
-    <ds:schemaRef ds:uri="49919dca-d9c1-492f-bd36-8a887e31a6e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>